--- a/data/trans_bre/P1418-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1418-Estudios-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>1.427508957671285</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.6784490355462386</v>
+        <v>0.6784490355462387</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.098819098155006</v>
+        <v>4.069760827120388</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.784147675515202</v>
+        <v>7.647773603428158</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.224086012470537</v>
+        <v>5.999182011077631</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.567231705492987</v>
+        <v>4.7692145844794</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3310355411266781</v>
+        <v>0.3197255146209353</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8054455413721615</v>
+        <v>0.7975530480069593</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8191479654958761</v>
+        <v>0.8142366297526066</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3338499324144664</v>
+        <v>0.3536171600901565</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.573631302221184</v>
+        <v>9.682126140903339</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.34094287834079</v>
+        <v>13.08695067189813</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.91511030087096</v>
+        <v>12.08402935479701</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.94617717498156</v>
+        <v>11.33987167353739</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9892939583142466</v>
+        <v>0.9801079930627837</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.998491878962287</v>
+        <v>1.939154060920365</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.333374621612349</v>
+        <v>2.436552424677844</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.118574861498079</v>
+        <v>1.140258204535794</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.106425004995699</v>
+        <v>1.085411132351875</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.706982183923838</v>
+        <v>2.72729646098197</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.961142329825037</v>
+        <v>1.915441850317255</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.852847646150795</v>
+        <v>1.90483921374153</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3082381025152646</v>
+        <v>0.2889735754699115</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.378034582051669</v>
+        <v>1.600802527247424</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.042485952745199</v>
+        <v>0.9443134741559387</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4824477862261825</v>
+        <v>0.5036662814687338</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.123424125964611</v>
+        <v>4.093318042819664</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.179470710050555</v>
+        <v>5.127535382204267</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.049503491167881</v>
+        <v>4.042802851377957</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.082590640551482</v>
+        <v>4.121067381814447</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.79732720174185</v>
+        <v>1.660820029605396</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.96883469464608</v>
+        <v>5.651651523898586</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.609498153338501</v>
+        <v>3.595191817640042</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.571289823458396</v>
+        <v>1.582521589770926</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.786472641592772</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.101904950743971</v>
+        <v>3.101904950743972</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6099520056213955</v>
@@ -849,7 +849,7 @@
         <v>2.56015418320234</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1.926625774994402</v>
+        <v>1.926625774994403</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4917981041360008</v>
+        <v>-0.5716974192735497</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6516169221482901</v>
+        <v>-0.6317324398856754</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.299991615306835</v>
+        <v>0.2469811061262879</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.589687882755631</v>
+        <v>1.537043301181954</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2260203233857605</v>
+        <v>-0.2166259804664868</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5750433531902959</v>
+        <v>-0.5672834566373209</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.09152213624857627</v>
+        <v>-0.2715747143297274</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.5453877040655154</v>
+        <v>0.6335868526369499</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.062786349733393</v>
+        <v>3.955011644397074</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.761526442632122</v>
+        <v>2.738301957541152</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.563178580747644</v>
+        <v>3.488859213213496</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.981911112328006</v>
+        <v>4.853178406696352</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.376156869263073</v>
+        <v>2.402221708449299</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>7.568726508025581</v>
+        <v>7.225794341593033</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>13.40405134207914</v>
+        <v>13.99269627341842</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>4.970493224288846</v>
+        <v>5.264306846147017</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.747134674598567</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.5953041610778</v>
+        <v>4.595304161077801</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8579575376559986</v>
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.423952312759858</v>
+        <v>3.390369781274092</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.463877660924131</v>
+        <v>5.523495914156549</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.608357337671717</v>
+        <v>3.741302539132623</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.562922874403148</v>
+        <v>3.639362694145654</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5766398584634956</v>
+        <v>0.5554191921367343</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.484885165259507</v>
+        <v>1.551056283388303</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.253310390464</v>
+        <v>1.3585224331675</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.7567637293145363</v>
+        <v>0.7581322372158222</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.980610133474189</v>
+        <v>5.886691809521658</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.77754583764639</v>
+        <v>7.991966007779233</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.674611240214672</v>
+        <v>5.971661671796078</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.50342296540239</v>
+        <v>5.609587583767496</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.228376231554995</v>
+        <v>1.190903813270168</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.838614537215332</v>
+        <v>3.010633333350572</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.714484487728388</v>
+        <v>2.954161884773396</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.487222924938494</v>
+        <v>1.495375183137674</v>
       </c>
     </row>
     <row r="16">
